--- a/backend/seed_data/seed.xlsx
+++ b/backend/seed_data/seed.xlsx
@@ -10,6 +10,8 @@
     <sheet name="snapshots_wide" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="markets" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="tracked_markets" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="paper_trades" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="dca_subscriptions" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31567,7 +31569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32246,17 +32248,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>586301</t>
+          <t>572492</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>will-the-supreme-court-rule-in-favor-of-trumps-tariffs</t>
+          <t>will-trump-nominate-barron-trump-as-the-next-fed-chair</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supreme Court rules in favor of Trump's tariffs?</t>
+          <t>Will Trump nominate Barron Trump as the next Fed chair?</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -32271,10 +32273,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4370889.828423</v>
+        <v>20816896.01291</v>
       </c>
       <c r="H16" t="n">
-        <v>65439.4515</v>
+        <v>3800966.0478</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -32283,24 +32285,24 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://polymarket.com/event/will-the-supreme-court-rule-in-favor-of-trumps-tariffs</t>
+          <t>https://polymarket.com/event/who-will-trump-nominate-as-fed-chair</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>666860</t>
+          <t>586301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>trump-out-as-president-by-march-31</t>
+          <t>will-the-supreme-court-rule-in-favor-of-trumps-tariffs</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Trump out as President by March 31?</t>
+          <t>Supreme Court rules in favor of Trump's tariffs?</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -32315,10 +32317,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2689046.024583</v>
+        <v>4370889.828423</v>
       </c>
       <c r="H17" t="n">
-        <v>128808.7952</v>
+        <v>65439.4515</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -32327,24 +32329,24 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://polymarket.com/event/trump-out-as-president-by-march-31</t>
+          <t>https://polymarket.com/event/will-the-supreme-court-rule-in-favor-of-trumps-tariffs</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>666861</t>
+          <t>666860</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>trump-out-as-president-before-2027</t>
+          <t>trump-out-as-president-by-march-31</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Trump out as President before 2027?</t>
+          <t>Trump out as President by March 31?</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -32359,10 +32361,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3003577.650614</v>
+        <v>2689046.024583</v>
       </c>
       <c r="H18" t="n">
-        <v>164439.0349</v>
+        <v>128808.7952</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -32371,24 +32373,24 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://polymarket.com/event/trump-out-as-president-before-2027</t>
+          <t>https://polymarket.com/event/trump-out-as-president-by-march-31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>521949</t>
+          <t>666861</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>will-elon-and-doge-cut-more-than-250b-in-federal-spending-in-2025</t>
+          <t>trump-out-as-president-before-2027</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Will Elon and DOGE cut more than $250b in federal spending in 2025?</t>
+          <t>Trump out as President before 2027?</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -32403,36 +32405,36 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>721337.956904</v>
+        <v>3003577.650614</v>
       </c>
       <c r="H19" t="n">
-        <v>7333.44563</v>
+        <v>164439.0349</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>trump</t>
+          <t>politics|trump</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://polymarket.com/event/how-much-spending-will-elon-and-doge-cut-in-2025</t>
+          <t>https://polymarket.com/event/trump-out-as-president-before-2027</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>521944</t>
+          <t>521949</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>will-elon-and-doge-cut-less-than-50b-in-federal-spending-in-2025</t>
+          <t>will-elon-and-doge-cut-more-than-250b-in-federal-spending-in-2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Will Elon and DOGE cut less than $50b in federal spending in 2025?</t>
+          <t>Will Elon and DOGE cut more than $250b in federal spending in 2025?</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -32447,10 +32449,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>354445.759052</v>
+        <v>721337.956904</v>
       </c>
       <c r="H20" t="n">
-        <v>13121.74758</v>
+        <v>7333.44563</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -32466,17 +32468,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>537490</t>
+          <t>521944</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>will-tariffs-generate-250b-in-2025</t>
+          <t>will-elon-and-doge-cut-less-than-50b-in-federal-spending-in-2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Will tariffs generate &gt;$250b in 2025?</t>
+          <t>Will Elon and DOGE cut less than $50b in federal spending in 2025?</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -32491,10 +32493,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1265284.843527</v>
+        <v>354445.759052</v>
       </c>
       <c r="H21" t="n">
-        <v>21665.42643</v>
+        <v>13121.74758</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -32503,24 +32505,24 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://polymarket.com/event/will-tariffs-generate-250b-in-2025</t>
+          <t>https://polymarket.com/event/how-much-spending-will-elon-and-doge-cut-in-2025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>997488</t>
+          <t>537490</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>will-trump-acquire-greenland-before-2027</t>
+          <t>will-tariffs-generate-250b-in-2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Will Trump acquire Greenland before 2027?</t>
+          <t>Will tariffs generate &gt;$250b in 2025?</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -32535,10 +32537,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27593642.77129</v>
+        <v>1265284.843527</v>
       </c>
       <c r="H22" t="n">
-        <v>521843.2485</v>
+        <v>21665.42643</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -32547,51 +32549,139 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://polymarket.com/event/will-trump-acquire-greenland-before-2027</t>
+          <t>https://polymarket.com/event/will-tariffs-generate-250b-in-2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>997488</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>will-trump-acquire-greenland-before-2027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Will Trump acquire Greenland before 2027?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>["Yes", "No"]</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>27593642.77129</v>
+      </c>
+      <c r="H23" t="n">
+        <v>521843.2485</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>trump</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://polymarket.com/event/will-trump-acquire-greenland-before-2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>1126504</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>will-the-us-acquire-any-part-of-greenland-in-2026</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Will the US acquire part of Greenland in 2026?</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>["Yes", "No"]</t>
         </is>
       </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>8027754.756106</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>167876.9575</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>trump</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://polymarket.com/event/will-the-us-acquire-any-part-of-greenland-in-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1308327</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>another-us-government-shutdown-by-february-14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Government shutdown on Saturday?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>["Yes", "No"]</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7467525.501063</v>
+      </c>
+      <c r="H25" t="n">
+        <v>89218.38705999999</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>trump</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://polymarket.com/event/another-us-government-shutdown-by-february-14</t>
         </is>
       </c>
     </row>
@@ -32606,7 +32696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33167,6 +33257,6920 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>572492</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1308327</t>
+        </is>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trade_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>created_at_utc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>market_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>side</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>snapshot_ts_utc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>fees</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a26cb179-85bc-49e8-a7b6-5d55c8f52297</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>561973</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "9bdf15f7-3bc4-4314-9d86-74000e98c683"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a48a3097-478d-4898-9220-6cd9e9e87455</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>561973</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9515</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "9bdf15f7-3bc4-4314-9d86-74000e98c683"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a80e3035-ee11-4aee-bd31-30cefbdfe506</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>561973</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "9bdf15f7-3bc4-4314-9d86-74000e98c683"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2812daf7-a5df-41f9-a8c1-e7c2b083b810</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>561973</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "9bdf15f7-3bc4-4314-9d86-74000e98c683"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>114df730-2191-4c35-b13e-6568cef59168</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>561973</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "9bdf15f7-3bc4-4314-9d86-74000e98c683"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7bd93228-8615-49c4-948f-785f2826d0d8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>561973</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "9bdf15f7-3bc4-4314-9d86-74000e98c683"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7ef440e2-5f1d-4082-8f1c-b665455d2f7f</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>561998</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e147a8a0-df38-40aa-a66e-ed027bf433e1"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4235dce6-1ad2-4fff-a2a7-cd40f4a863f0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>561998</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e147a8a0-df38-40aa-a66e-ed027bf433e1"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6bf061ba-b073-4d80-b275-20b0d96e272d</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>561998</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e147a8a0-df38-40aa-a66e-ed027bf433e1"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fc9b7e1b-ef65-495c-9d14-a681494d4058</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>561998</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e147a8a0-df38-40aa-a66e-ed027bf433e1"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7d7e9220-a582-48f6-8d1e-c89af6cf3dc2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>561998</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e147a8a0-df38-40aa-a66e-ed027bf433e1"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>d9984350-4480-468a-9322-5b52e8a3fcb5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>561998</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9915</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e147a8a0-df38-40aa-a66e-ed027bf433e1"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c41d675b-7931-433e-ae98-aef0200963ee</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>561243</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "fbf0bb14-8e4e-4397-b08f-1f25d17fc510"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5064df54-1e8a-445e-9818-75d9668e80a8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>561243</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "fbf0bb14-8e4e-4397-b08f-1f25d17fc510"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>d5ae0dae-f440-4cd4-b44f-0b287260eb93</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>561243</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9715</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "fbf0bb14-8e4e-4397-b08f-1f25d17fc510"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c305a29d-69ae-4b23-80e0-7fea0c8f1c2e</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>561243</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9715</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "fbf0bb14-8e4e-4397-b08f-1f25d17fc510"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0f2eda14-2ffa-45b4-a863-fbc910cdff3a</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>561243</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9695</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "fbf0bb14-8e4e-4397-b08f-1f25d17fc510"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>a4ac77d2-d195-4958-8138-28d1ff176af6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>561243</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9735</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "fbf0bb14-8e4e-4397-b08f-1f25d17fc510"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>afcfa873-fcc3-4eeb-8f43-c6d8ac3df22f</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "f0776144-00b0-4f10-ac6b-48546bb14105"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1e707655-4bce-43ea-8d4f-3ad28848b9f2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "f0776144-00b0-4f10-ac6b-48546bb14105"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3a3fd62d-6c88-483a-8cff-6cb7c50717ec</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "f0776144-00b0-4f10-ac6b-48546bb14105"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>b2742477-e40d-4381-99b4-c87780ac5a9b</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "f0776144-00b0-4f10-ac6b-48546bb14105"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4dd24e60-ec07-475f-862c-98dbe09d2608</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "f0776144-00b0-4f10-ac6b-48546bb14105"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5be0b617-fc8d-432f-96d5-03ffa2994dc1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9895</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "f0776144-00b0-4f10-ac6b-48546bb14105"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>00a539c9-357d-48e1-8712-ce439a54cef9</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-09T12:22:04.957942+00:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>997488</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-02-09T12:22:04.957942+00:00</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6734f20f-8315-4aa5-80db-132da9f8fd99"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1259ae58-0381-40c3-ae93-b635acc6df5a</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>997488</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6734f20f-8315-4aa5-80db-132da9f8fd99"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02bcdd17-cc7f-432d-b26b-18cd24dd32aa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>997488</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6734f20f-8315-4aa5-80db-132da9f8fd99"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c512029c-a040-4016-895c-f8571c06a12b</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>997488</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6734f20f-8315-4aa5-80db-132da9f8fd99"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3ffceacc-92eb-4a2a-9d4f-f5ce0ac35a3f</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>997488</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6734f20f-8315-4aa5-80db-132da9f8fd99"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>71aa4c51-7ca9-4bf2-9b7d-5bbdd489a9e3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>666860</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "c55e9302-58f3-4153-b041-fa4a59d65db2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ebfc3b86-bdbc-4a0e-9313-dff6c15e1344</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>666860</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "c55e9302-58f3-4153-b041-fa4a59d65db2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>19b9479d-4f15-4781-8f87-3eecfee0bbb6</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>666860</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "c55e9302-58f3-4153-b041-fa4a59d65db2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33091887-a391-47b1-b430-2246ce05bb6a</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>666860</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "c55e9302-58f3-4153-b041-fa4a59d65db2"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>8435fb3c-622c-4526-8f19-94d69db94eab</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1126504</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e351f67d-239b-4dd2-bf11-29034d280c17"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3fe7dce1-4b04-4893-90f0-004829e4762f</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1126504</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e351f67d-239b-4dd2-bf11-29034d280c17"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>e84a4ace-ddfb-4cad-983c-98cc104789c1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1126504</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e351f67d-239b-4dd2-bf11-29034d280c17"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>57e8a9a5-e747-446a-9424-15235f45a3fe</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1126504</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "e351f67d-239b-4dd2-bf11-29034d280c17"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0646b7e1-d219-46bc-a86d-eb187ce5bded</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>666861</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "b3fe6ac1-fe4f-4eff-af21-1667ba9f4399"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6f224275-a60c-42c0-af9e-abac990a6cb6</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>666861</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "b3fe6ac1-fe4f-4eff-af21-1667ba9f4399"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>845f66e2-d343-4f82-8e77-df5597213de6</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>666861</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "b3fe6ac1-fe4f-4eff-af21-1667ba9f4399"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>cef8cfdf-ba43-4e46-93c4-a86467a94951</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>666861</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "b3fe6ac1-fe4f-4eff-af21-1667ba9f4399"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>c7e2489b-b1b5-4f7d-9c07-1f7d85561e1c</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>586301</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d3fe6ec7-f9a0-478b-ab9b-a7c542a8510b"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4c5ba89d-5c3c-4996-a44d-598448eed6ac</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>586301</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d3fe6ec7-f9a0-478b-ab9b-a7c542a8510b"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>c669f7a2-2203-4dba-aebe-591a1d11dcfc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>586301</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d3fe6ec7-f9a0-478b-ab9b-a7c542a8510b"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>d2675eda-8214-479c-9aff-b0d9c9618f27</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:31:56.422414Z</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2026-02-13T12:15:29.385369Z</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5871c3d6-e6ba-4efc-989c-cdbe45228ce7</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9725</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ac7da295-a6ea-4b4d-b37b-fa9637c34d50</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ef1a51a6-d0c9-4a6f-9295-43b5244a3056</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9655</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>e25c2647-4da4-4cba-88d6-4044bdb8645c</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>dab94dc2-884e-4e96-a3f7-2b012f7ecbcc</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>a7821e98-4b56-4afe-9faa-e00200bc2947</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9545</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>da1a9da5-8f3b-4b32-9e5d-2b7f3d0334d8</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>b35011c5-756e-487c-934d-d4f10041465a</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9805</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>9529d570-f04c-4e54-9001-846ea8cd5a79</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "6f18b133-82a2-43ad-bc41-f05607496b06"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3f6ee3ec-a712-4cb6-bce1-a80d3ec7d50f</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>c64d27a6-b8bf-4283-96d3-5da6c62304c9</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>9e4a8ce2-d750-48ad-b9d5-c94933affad5</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>b3f7f687-d1a2-4328-89d5-d9f041e01d43</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>a427066f-ca52-464e-a7bb-985a7c24a50d</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>e77a676e-ac42-4f71-9dc8-05852d0713eb</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>22224dd5-a95f-4bfa-8845-6b18bff81aa7</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3f7ae047-e77f-4c7c-86df-25b943a7a4b2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>f14cb04b-3cd5-43fb-acf1-b86d0598bc53</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "7356e7c9-c384-4a7f-99c6-c38a5d8ed746"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63dfa33d-4a47-4b06-af1d-a7721a85feaa</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>d8cf9ae4-bfeb-45dc-94ce-671095a1aa6b</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>fb0ae5ed-ca51-44fa-b791-db99a8db4c8f</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4010fdc1-a5d8-4d38-aa90-754df815803a</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2977c6e1-1923-4ca6-a2ba-c417887830a0</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9785</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7b086c86-cb10-4f16-9963-232a4257a2c9</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ab9bbe70-d721-4307-8966-7c3dec9628a7</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>88bff9b0-a09b-44a0-b530-48f4823946bd</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9855</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>c998d995-608e-4bcd-9357-3f303f94514b</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9945000000000001</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "d6c223b1-9339-4089-9c17-4279a31979f4"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>06f34aa6-33b3-4d0c-be11-38400fb7ebd2</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>8bc62063-f46b-4d47-a1f3-7639a2558d96</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>f8cb2a7a-f7ba-4429-a326-01d1383b4693</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>890cf86c-5bb3-47af-91cc-47cf10003e6c</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>610999de-1894-4665-9992-885b4debbb35</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>481adb8e-e148-4b4d-a29a-c545ea70507b</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.9435</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>268c4d1f-6394-4f7b-800c-47f70847ed94</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>93f0bcfc-4dd9-48cc-ab7e-04259623ca97</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>9556f6fd-2070-44e7-be94-561cb496ea21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "83ae7b5e-b6b4-4ec9-9953-ec5e1b563176"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7e480928-1679-4988-84a2-97c82b063dcb</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>909feff0-11f8-4d4f-80eb-b901a0128dd9</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>8c587a63-79d1-490e-abba-871971ebf935</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85b35559-ebdd-46e2-a50a-08e12be8c41d</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9355</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>e2d0739e-6365-40d1-b59a-557a982d2258</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.9655</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>d103d96d-4702-4c8f-8f46-1dd8f23b87d4</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>d03b39cf-8924-4968-b5ea-f4e08eca9c7a</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9435</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>eb9549a0-1955-4602-9431-a8ba802b0aaf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.9535</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>97ab1037-287c-42b4-9221-f65cc152e6f7</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "567a5d3c-233d-4bbb-8d3c-06b363cc4471"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>84f98e5c-e0d6-49da-836a-ce7361422734</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.9855</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>d9927e61-beb8-4599-9154-c72f25ae69ca</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>c279d68f-c54b-454c-83c9-03980cd974f1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>db4c1286-6309-44a0-ba76-d5291739a674</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7c96b85e-906b-412a-9865-993ed7ba44d4</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ce8fa8bd-4ce4-4c29-868a-e015402f3f20</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5aa6c741-01db-4b05-a9b4-7343c84dee3e</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>92dbf09b-8278-432b-a3e2-a1ae9d0899da</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ea35bb95-7250-4d1c-9d28-f1eb1ada3b27</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "510b72b9-88be-4ec0-a7cd-9180b33c570a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4018fdcb-03f5-42a8-b5e5-c8d484606ce2</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9935</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2ed51d9e-b7a1-4b91-9fe9-0078a5ddf372</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>c0921b89-5ca4-4d99-be53-ef273130ee6c</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>202d5b54-46aa-4f7b-a173-5b86c75fc07b</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>a2e99415-1c0e-4dc6-9aff-06a522ee2bd4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>e8d7b6b3-986d-4c5a-b6f1-b8adab57069a</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0bbf9cb3-8e71-453f-89ee-84a91fa02ee0</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>f5f7e03c-9bf1-42f6-af28-f649ad762bf3</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>270e419e-0571-4364-9020-0ded0c9d8548</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "bf50c4dc-18a1-4ac4-830f-6e8d857d7625"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1e309596-d0db-4cb5-ad29-ce2930bcb1e3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>37d1d4b9-b636-4d31-927f-e10df64c67c6</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>d6db89ff-37f1-4b2d-8fc9-bb404fec27c5</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>fdd191bc-d347-4b45-9713-fa6914031a46</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>75d708f1-d198-42e4-b7fb-9bf662e9ae5d</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>a36055c8-58c4-4fa2-b418-fe0454b9139b</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>e8eb514f-f85d-4416-a865-b442f30197c1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7a20f1f7-e8ce-49fb-8be4-91b0f0aeff5f</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>cce2e2c3-ca51-4003-b2b0-7542dc357647</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "19916886-7634-4fb4-951f-1d9c07c40264"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>5bbd4f0c-adaa-477c-8607-3e1d0ee4907f</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>f34f78ca-a81f-49dc-8464-2a205ccc38d6</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>d7a48572-2fd1-42d2-9606-73245b390551</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2026-02-05T13:06:10.815707+00:00</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>b43cfeb3-ae5d-4873-b932-8af9a6c9cb5d</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2026-02-06T10:10:28.280000+00:00</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>be989940-d505-438b-8054-4c0985dcb7ce</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2026-02-09T01:57:01.100813+00:00</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>b5bca5f9-9e23-4b5d-b23d-789125660749</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2026-02-10T10:39:43.825567+00:00</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>80ca4389-f0db-42fb-8e4f-bb1726fe893e</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1a8c347f-e97f-428e-8d6f-bf1b961068fb</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4d799bf6-a103-4383-8e90-4063ae666a99</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "be0e098c-dcf3-488c-ba60-849b5f96b4b8"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>c177e923-b9f6-4fd1-ac50-8d9e8b657ecc</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>561255</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2026-01-26T13:52:50.817411+00:00</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "0f973968-46df-41a4-9a9a-6ee74e7dcd4a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>854a9a18-fb79-4f1b-a1dc-9ab59fcdb7f0</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>561255</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2026-02-02T12:16:46.187423+00:00</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "0f973968-46df-41a4-9a9a-6ee74e7dcd4a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>18fdc9f7-9132-44d5-9570-9a94efca697a</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>561255</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2026-02-10T16:49:43.228123+00:00</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "0f973968-46df-41a4-9a9a-6ee74e7dcd4a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>85a5f229-ee48-4529-9124-dffc9cac6bab</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>561255</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2026-02-11T17:33:36.896883+00:00</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "0f973968-46df-41a4-9a9a-6ee74e7dcd4a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>87dfcdbc-408f-4d6a-9275-2d556a1c30f6</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>561255</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2026-02-12T18:27:05.239344+00:00</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "0f973968-46df-41a4-9a9a-6ee74e7dcd4a"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>44e13ed2-3354-4f2b-8744-0da02e631208</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>561255</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2026-02-13T11:11:51.026168+00:00</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>{"dca": true, "dca_id": "0f973968-46df-41a4-9a9a-6ee74e7dcd4a"}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dca_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>market_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>side</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>created_at_utc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>last_executed_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>total_trades_placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>b3fe6ac1-fe4f-4eff-af21-1667ba9f4399</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>666861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:32:52.580987Z</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6734f20f-8315-4aa5-80db-132da9f8fd99</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>997488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:26:43.280995Z</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7356e7c9-c384-4a7f-99c6-c38a5d8ed746</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>517310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:28:04.444126Z</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>e351f67d-239b-4dd2-bf11-29034d280c17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1126504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:31:34.535166Z</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9bdf15f7-3bc4-4314-9d86-74000e98c683</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>561973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:32:40.165138Z</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>f0776144-00b0-4f10-ac6b-48546bb14105</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>561244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:31:53.559135Z</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>d3fe6ec7-f9a0-478b-ab9b-a7c542a8510b</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>586301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:32:14.151266Z</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fbf0bb14-8e4e-4397-b08f-1f25d17fc510</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>561243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:32:26.769551Z</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c55e9302-58f3-4153-b041-fa4a59d65db2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>666860</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:33:22.396643Z</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>e147a8a0-df38-40aa-a66e-ed027bf433e1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>561998</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:33:36.192825Z</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0f973968-46df-41a4-9a9a-6ee74e7dcd4a</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>561255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:33:46.481131Z</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>510b72b9-88be-4ec0-a7cd-9180b33c570a</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>537490</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:33:56.305732Z</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>567a5d3c-233d-4bbb-8d3c-06b363cc4471</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:34:11.757168Z</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>d6c223b1-9339-4089-9c17-4279a31979f4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>521949</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:34:26.720282Z</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>19916886-7634-4fb4-951f-1d9c07c40264</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>568116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:34:36.772745Z</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>bf50c4dc-18a1-4ac4-830f-6e8d857d7625</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517319</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:34:49.023055Z</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>be0e098c-dcf3-488c-ba60-849b5f96b4b8</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>568117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:34:58.692559Z</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6f18b133-82a2-43ad-bc41-f05607496b06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>521944</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:35:11.195043Z</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>83ae7b5e-b6b4-4ec9-9953-ec5e1b563176</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1068702</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-13T13:36:15.751300Z</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
